--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heyix\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heyix\Desktop\EECS486\project\eecs486_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE37F20D-0677-4382-8D3D-7C5342ADFD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4573A-7850-4175-929C-B237165CC9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>mse lost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>sentencebert Random Forest with data processing 20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec Linear Regression with data processing 80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec SVM with data processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec Random Forest with data processing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,6 +465,30 @@
         <v>0.66628900000000002</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.0214000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.0683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.89529999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heyix\Desktop\EECS486\project\eecs486_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4573A-7850-4175-929C-B237165CC9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B22F47-13E9-42FE-AB23-361F2F6505BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>mse lost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>word2vec Random Forest with data processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentencebert Linear Regression with data processing 20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec Linear Regresion without data processing 20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec Linear Rregression with data processing 20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -489,6 +501,30 @@
         <v>0.89529999999999998</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.60651679999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.2195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.0058</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
